--- a/pred_ohlcv/54_21/2020-01-16 THETA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 THETA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-144204.4098097663</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-144204.4098097663</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-144295.8530097663</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-144295.8530097663</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-144295.8530097663</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-147475.1124097663</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-134656.4971097663</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-102829.9512097663</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-114438.6800097663</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-143525.8627097663</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-148609.6021097663</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-148388.6021097663</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-160225.1231097663</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-166079.7802097663</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-166196.4545097663</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-161674.6972097663</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-161674.6972097663</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-161674.6972097663</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-159970.6961097663</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-159970.6961097663</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-160633.7389097663</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-160321.7389097663</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-201740.7722097663</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-215752.2140097664</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-279900.2618097664</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-279836.4701097664</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-276558.5124097664</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-271658.5124097664</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-288639.6253097664</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-288554.1553097664</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-288554.1553097664</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-268816.2340097664</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-268816.2340097664</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-271126.2340097664</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-271126.2340097664</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-272148.3340097664</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-252548.3340097664</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-252548.3340097664</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-252548.3340097664</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-252548.3340097664</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-252548.3340097664</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-250890.4347097664</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-250890.4347097664</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-250940.4347097664</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-250940.4347097664</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-241140.4347097664</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-16 THETA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 THETA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-144204.4098097663</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-144204.4098097663</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-144295.8530097663</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-144295.8530097663</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-144295.8530097663</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-147475.1124097663</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-134656.4971097663</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-102829.9512097663</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-148609.6021097663</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-166079.7802097663</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-166196.4545097663</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-165754.4545097663</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-166754.4545097663</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-161674.6972097663</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-161674.6972097663</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-159970.6961097663</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-159970.6961097663</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-160633.7389097663</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-160321.7389097663</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-201740.7722097663</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-251166.8150097663</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-250118.5270097663</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-235838.7189097664</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-279900.2618097664</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-279836.4701097664</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-282146.4701097664</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-273301.4701097664</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-282856.2875097663</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-282856.2875097663</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-282856.2875097663</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-285416.4123097663</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-288622.3993097664</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-288622.3993097664</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-288639.6253097664</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-288639.6253097664</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-288554.1553097664</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-288554.1553097664</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-268816.2340097664</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-268816.2340097664</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-271126.2340097664</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-271126.2340097664</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-272148.3340097664</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-252548.3340097664</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-252548.3340097664</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-252548.3340097664</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-252548.3340097664</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-252548.3340097664</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-250890.4347097664</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-250890.4347097664</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-250940.4347097664</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-250940.4347097664</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-241140.4347097664</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
